--- a/config/xlsx/battle_enemy.xlsx
+++ b/config/xlsx/battle_enemy.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="9640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +19,12 @@
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -39,7 +33,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -50,13 +43,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -65,7 +57,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -81,47 +72,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>charId</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>level</t>
   </si>
   <si>
     <t>str</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>col</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>row</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>charId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,47 +117,168 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.0499893185216834"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,13 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,8 +297,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -222,9 +513,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -244,27 +777,71 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -522,19 +1099,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="5" width="9.375" style="3"/>
     <col min="6" max="6" width="14.125" style="3" customWidth="1"/>
@@ -544,49 +1121,49 @@
     <col min="10" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -603,12 +1180,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -620,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -637,12 +1214,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -654,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -671,12 +1248,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -689,9 +1266,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/battle_enemy.xlsx
+++ b/config/xlsx/battle_enemy.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CD79D-9CB8-4B41-948D-3A455AD855C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25460" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>id</t>
   </si>
@@ -92,7 +86,7 @@
     <t>col</t>
   </si>
   <si>
-    <t>level</t>
+    <t>～level</t>
   </si>
   <si>
     <t>str</t>
@@ -104,8 +98,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,31 +128,157 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="0" tint="-0.0499893185216834"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,7 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,12 +299,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -201,9 +513,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -223,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -233,17 +787,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -501,19 +1099,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="5" width="9.375" style="3"/>
     <col min="6" max="6" width="14.125" style="3" customWidth="1"/>
@@ -523,7 +1121,7 @@
     <col min="10" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +1142,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -565,7 +1163,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -573,16 +1171,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -599,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -616,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -633,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -650,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -668,9 +1266,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/battle_enemy.xlsx
+++ b/config/xlsx/battle_enemy.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9440"/>
+    <workbookView windowWidth="25460" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>id</t>
   </si>
@@ -89,6 +92,9 @@
     <t>～level</t>
   </si>
   <si>
+    <t>~备注</t>
+  </si>
+  <si>
     <t>str</t>
   </si>
   <si>
@@ -100,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -135,6 +141,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,6 +156,99 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,37 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -196,23 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,61 +283,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,7 +311,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,175 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +511,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -532,17 +535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,22 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,148 +610,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -845,6 +839,330 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>charCode</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>charName</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>feature</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>str</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>str</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>str</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>str</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>yuji</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>虞美人</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>基础物理输出</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>change</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>月魅</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>基础治疗</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>daji</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>狐言</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>法术输出</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>diaochan</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>貂蝉</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>群体治疗</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>diaochanhong</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>秋蝉</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>物理防御性肉盾</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>monvyemei</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>夜魅</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>魔法防御性肉盾</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>mudanxianzi</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>牡丹</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>控制型肉盾</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>change</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>芰</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>技巧型输出</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>9</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>daji</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>荷</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>伤害增强buff型治疗</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>10</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>diaochan</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>莲</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>群体型物理输出</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>11</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>diaochanhong</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>舜华</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>群体型法术输出</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>12</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>monvyemei</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>柳</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>穿甲型物理输出</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>13</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>mudanxianzi</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>昙</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>破盾型物理输出</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>14</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>change</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>湘妃竹</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>驱散，伤害增强</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>15</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>daji</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>海棠</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>回复护盾型治疗</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>500001</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>diaochan</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>莲华</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>弱鸡物理输出，肉盾</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>500002</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>diaochanhong</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>舜华</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>食我眩晕</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>500003</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>monvyemei</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>月华</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>高护盾型物理输出</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>500004</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>mudanxianzi</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>日华</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>高物理护甲型输出</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>500005</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>change</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>瞳华</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>对最近的造成伤害</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1105,13 +1423,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="5" width="9.375" style="3"/>
     <col min="6" max="6" width="14.125" style="3" customWidth="1"/>
@@ -1137,55 +1455,63 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
+    <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>500001</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
       </c>
+      <c r="F3" s="2" t="str">
+        <f>VLOOKUP(B3,[1]Sheet1!$A:$D,4)</f>
+        <v>弱鸡物理输出，肉盾</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
+    <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>500002</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -1196,13 +1522,17 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
+      <c r="F4" s="2" t="str">
+        <f>VLOOKUP(B4,[1]Sheet1!$A:$D,4)</f>
+        <v>食我眩晕</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>500003</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -1213,30 +1543,38 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
+      <c r="F5" s="2" t="str">
+        <f>VLOOKUP(B5,[1]Sheet1!$A:$D,4)</f>
+        <v>高护盾型物理输出</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>500004</v>
       </c>
       <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
+      <c r="F6" s="2" t="str">
+        <f>VLOOKUP(B6,[1]Sheet1!$A:$D,4)</f>
+        <v>高物理护甲型输出</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -1247,13 +1585,17 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
+      <c r="F7" s="2" t="str">
+        <f>VLOOKUP(B7,[1]Sheet1!$A:$D,4)</f>
+        <v>基础治疗</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1263,6 +1605,28 @@
       </c>
       <c r="E8" s="7">
         <v>1</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>VLOOKUP(B8,[1]Sheet1!$A:$D,4)</f>
+        <v>回复护盾型治疗</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>500005</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>VLOOKUP(B9,[1]Sheet1!$A:$D,4)</f>
+        <v>对最近的造成伤害</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/battle_enemy.xlsx
+++ b/config/xlsx/battle_enemy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="12220"/>
+    <workbookView windowWidth="25460" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -154,8 +154,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +233,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -184,105 +283,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -311,13 +311,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,139 +449,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,35 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -576,6 +547,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -591,17 +577,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,142 +610,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,7 +981,7 @@
             <v>8</v>
           </cell>
           <cell r="B10" t="str">
-            <v>change</v>
+            <v>nvshizhuang1</v>
           </cell>
           <cell r="C10" t="str">
             <v>芰</v>
@@ -995,7 +995,7 @@
             <v>9</v>
           </cell>
           <cell r="B11" t="str">
-            <v>daji</v>
+            <v>nvzhujueliujie</v>
           </cell>
           <cell r="C11" t="str">
             <v>荷</v>
@@ -1009,7 +1009,7 @@
             <v>10</v>
           </cell>
           <cell r="B12" t="str">
-            <v>diaochan</v>
+            <v>nvshizhuang2_1</v>
           </cell>
           <cell r="C12" t="str">
             <v>莲</v>
@@ -1023,7 +1023,7 @@
             <v>11</v>
           </cell>
           <cell r="B13" t="str">
-            <v>diaochanhong</v>
+            <v>nvshizhuang5</v>
           </cell>
           <cell r="C13" t="str">
             <v>舜华</v>
@@ -1037,7 +1037,7 @@
             <v>12</v>
           </cell>
           <cell r="B14" t="str">
-            <v>monvyemei</v>
+            <v>nvshizhuang6</v>
           </cell>
           <cell r="C14" t="str">
             <v>柳</v>
@@ -1051,7 +1051,7 @@
             <v>13</v>
           </cell>
           <cell r="B15" t="str">
-            <v>mudanxianzi</v>
+            <v>nvshizhuang7</v>
           </cell>
           <cell r="C15" t="str">
             <v>昙</v>
@@ -1065,7 +1065,7 @@
             <v>14</v>
           </cell>
           <cell r="B16" t="str">
-            <v>change</v>
+            <v>nvshizhuang8</v>
           </cell>
           <cell r="C16" t="str">
             <v>湘妃竹</v>
@@ -1079,7 +1079,7 @@
             <v>15</v>
           </cell>
           <cell r="B17" t="str">
-            <v>daji</v>
+            <v>nvzhujueerjie</v>
           </cell>
           <cell r="C17" t="str">
             <v>海棠</v>
@@ -1093,7 +1093,7 @@
             <v>500001</v>
           </cell>
           <cell r="B18" t="str">
-            <v>diaochan</v>
+            <v>nvshizhuang2_1</v>
           </cell>
           <cell r="C18" t="str">
             <v>莲华</v>
@@ -1107,7 +1107,7 @@
             <v>500002</v>
           </cell>
           <cell r="B19" t="str">
-            <v>diaochanhong</v>
+            <v>nvshizhuang5</v>
           </cell>
           <cell r="C19" t="str">
             <v>舜华</v>
@@ -1121,7 +1121,7 @@
             <v>500003</v>
           </cell>
           <cell r="B20" t="str">
-            <v>monvyemei</v>
+            <v>nvshizhuang6</v>
           </cell>
           <cell r="C20" t="str">
             <v>月华</v>
@@ -1135,7 +1135,7 @@
             <v>500004</v>
           </cell>
           <cell r="B21" t="str">
-            <v>mudanxianzi</v>
+            <v>nvshizhuang7</v>
           </cell>
           <cell r="C21" t="str">
             <v>日华</v>
@@ -1149,7 +1149,7 @@
             <v>500005</v>
           </cell>
           <cell r="B22" t="str">
-            <v>change</v>
+            <v>nvshizhuang8</v>
           </cell>
           <cell r="C22" t="str">
             <v>瞳华</v>
@@ -1426,7 +1426,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
